--- a/List linh kien/Lich su mua hang.xlsx
+++ b/List linh kien/Lich su mua hang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manht\Desktop\DATN\List linh kien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958A313-000E-465B-955F-5F41A455A295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC04EB3-E8C3-4956-85C2-402E40DAB460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Mua lk tại chotroihn</t>
+  </si>
+  <si>
+    <t>Mua lk tại CXT: 113905</t>
+  </si>
+  <si>
+    <t>Mua lk tại CXT</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +564,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>44299</v>
       </c>
       <c r="C11" s="2">
@@ -572,16 +578,41 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>250000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C13" s="2">
+        <v>160000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C14" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -629,13 +660,14 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
-        <v>1705000</v>
+        <v>2150000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/List linh kien/Lich su mua hang.xlsx
+++ b/List linh kien/Lich su mua hang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manht\Desktop\DATN\List linh kien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC04EB3-E8C3-4956-85C2-402E40DAB460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074010B-19BB-408A-8C17-FD55297AA8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Mua lk tại CXT</t>
+  </si>
+  <si>
+    <t>mua lk tại banlinhkien</t>
+  </si>
+  <si>
+    <t>mua lk tại lkcl</t>
+  </si>
+  <si>
+    <t>đặt mạch tại cxt</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,49 +627,76 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>44312</v>
+      </c>
+      <c r="C15" s="2">
+        <v>53000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44313</v>
+      </c>
+      <c r="C16" s="2">
+        <v>81000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>44314</v>
+      </c>
+      <c r="C17" s="2">
+        <v>190000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
-        <v>2150000</v>
+        <v>2474000</v>
       </c>
     </row>
   </sheetData>
